--- a/excel/1995/Report-1995-04-05.xlsx
+++ b/excel/1995/Report-1995-04-05.xlsx
@@ -11,39 +11,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="127">
-  <si>
-    <t>recall_classification_date</t>
-  </si>
-  <si>
-    <t>product_type</t>
-  </si>
-  <si>
-    <t>classification</t>
-  </si>
-  <si>
-    <t>recall_number</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>recalling_firm</t>
-  </si>
-  <si>
-    <t>manufacturer</t>
-  </si>
-  <si>
-    <t>recall_initiation_date</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>distribution</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="133">
+  <si>
+    <t>RECALL_CLASSIFICATION_DATE</t>
+  </si>
+  <si>
+    <t>PRODUCT_TYPE</t>
+  </si>
+  <si>
+    <t>CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>RECALL_NUMBER</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>RECALLING_FIRM</t>
+  </si>
+  <si>
+    <t>MANUFACTURER</t>
+  </si>
+  <si>
+    <t>RECALL_INITIALIZATION_DATE</t>
+  </si>
+  <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
+  </si>
+  <si>
+    <t>DISTRIBUTION</t>
   </si>
   <si>
     <t>1995-04-05</t>
@@ -52,30 +52,28 @@
     <t>Drugs</t>
   </si>
   <si>
-    <t xml:space="preserve"> II
-</t>
+    <t>II</t>
   </si>
   <si>
     <t>d-094-5</t>
   </si>
   <si>
-    <t>Preparation H Hemorrhoidal Ointment, In 1 Ounce Tubes</t>
+    <t>Preparation H Hemorrhoidal Ointment In 1 Ounce Tubes</t>
   </si>
   <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>Whitehall Laboratories, Madison, New Jersey</t>
-  </si>
-  <si>
-    <t>May 16, 1994</t>
+    <t>Whitehall Laboratories Madison New Jersey</t>
+  </si>
+  <si>
+    <t>May 16 1994</t>
   </si>
   <si>
     <t>Presence Of Mold</t>
   </si>
   <si>
-    <t>3,596 dozen 1-ounce tubes were distributed; firm estimates
- none remains on the market</t>
+    <t>3 596 Dozen 1 Ounce Tubes Were Distributed Firm Estimates None Remains On The Market</t>
   </si>
   <si>
     <t>Nationwide</t>
@@ -84,66 +82,61 @@
     <t>d-105-5</t>
   </si>
   <si>
-    <t>Searle Calan Tablets, Verapamil Hydrochloride 40 Mg, In 100  Tablet Bottles, An Immediate Action Rx Oral Calcium Slow-  Channel Blocker For The Treatment Of Angina, Arrhythmias And  Essential Hypertension</t>
-  </si>
-  <si>
-    <t>G. d.  Searle &amp; Company</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>March 22, 1995</t>
+    <t>Searle Calan Tablets Verapamil Hydrochloride 40 Mg In 100 Tablet Bottles An Immediate Action Rx Oral Calcium Slow Channel Blocker For The Treatment Of Angina Arrhythmias And Essential Hypertension</t>
+  </si>
+  <si>
+    <t>G D Searle Company</t>
+  </si>
+  <si>
+    <t>March 22 1995</t>
   </si>
   <si>
     <t>Product Does Not Meet Dissolution Specifications</t>
   </si>
   <si>
-    <t>147,698 bottles were distributed; firm estimated that 20% of
- the product remained on market at time of recall initiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> III</t>
+    <t>147 698 Bottles Were Distributed Firm Estimated That 20 Of The Product Remained On Market At Time Of Recall Initiation</t>
+  </si>
+  <si>
+    <t>III</t>
   </si>
   <si>
     <t>d-095/097-5</t>
   </si>
   <si>
-    <t>Claforan (cefotaxime Sodium) Sterile Powder For Injection  (im/iv), Rx Broad Spectrum Cephalosporin Antibiotic:   (a) 500 Mg Vials; (b) 1</t>
+    <t>Claforan Cefotaxime Sodium Sterile Powder For Injection Im Iv Rx Broad Spectrum Cephalosporin Antibiotic A 500 Mg Vials B 1</t>
   </si>
   <si>
     <t>Hoechst Roussel Pharmaceuticals</t>
   </si>
   <si>
-    <t>Hoechst Aktiengesellschaft, Federal Republic Of Germany Or  Roussel Uclaf Plant 4, Romainville, France</t>
-  </si>
-  <si>
-    <t>February 20, 1995</t>
-  </si>
-  <si>
-    <t>Subpotency/stability Problems</t>
-  </si>
-  <si>
-    <t>firm estimated that 740,000 vials remained on the market at
- time of recall initiation</t>
+    <t>Hoechst Aktiengesellschaft Federal Republic Of Germany Or Roussel Uclaf Plant 4 Romainville France</t>
+  </si>
+  <si>
+    <t>February 20 1995</t>
+  </si>
+  <si>
+    <t>Subpotency Stability Problems</t>
+  </si>
+  <si>
+    <t>Firm Estimated That 740 000 Vials Remained On The Market At Time Of Recall Initiation</t>
   </si>
   <si>
     <t>d-098-5</t>
   </si>
   <si>
-    <t>Hydrocortisone Spray, 0</t>
-  </si>
-  <si>
-    <t>Clay Park Laboratories, Inc</t>
-  </si>
-  <si>
-    <t>March 16, 1995</t>
+    <t>Hydrocortisone Spray 0</t>
+  </si>
+  <si>
+    <t>Clay Park Laboratories Inc</t>
+  </si>
+  <si>
+    <t>March 16 1995</t>
   </si>
   <si>
     <t>Product Does Not Meet Ph Specifications</t>
   </si>
   <si>
-    <t>approximately 2,841 45ml-units were distributed</t>
+    <t>Approximately 2 841 45 Ml Units Were Distributed</t>
   </si>
   <si>
     <t>Florida</t>
@@ -152,16 +145,16 @@
     <t>d-099-5</t>
   </si>
   <si>
-    <t>Facial Soap (liquid Scrub), In 8 Ounce Plastic Bottles, Otc,  Used For The Control Of Acne</t>
-  </si>
-  <si>
-    <t>March 10, 1995</t>
+    <t>Facial Soap Liquid Scrub In 8 Ounce Plastic Bottles Otc Used For The Control Of Acne</t>
+  </si>
+  <si>
+    <t>March 10 1995</t>
   </si>
   <si>
     <t>Subpotenc</t>
   </si>
   <si>
-    <t>approximately 2,199 bottles were distributed</t>
+    <t>Approximately 2 199 Bottles Were Distributed</t>
   </si>
   <si>
     <t>California And Tennessee</t>
@@ -170,31 +163,31 @@
     <t>d-100-5</t>
   </si>
   <si>
-    <t>Benzoyl Peroxide 5% Gel, 45 Grams (1</t>
-  </si>
-  <si>
-    <t>March 14, 1995</t>
+    <t>Benzoyl Peroxide 5 Gel 45 Grams 1</t>
+  </si>
+  <si>
+    <t>March 14 1995</t>
   </si>
   <si>
     <t>Product Separation</t>
   </si>
   <si>
-    <t>approximately 37,998 units were distributed</t>
-  </si>
-  <si>
-    <t>California, Ohio, Georgia, New York, Kentucky, Florida,  Michigan, Maine, Maryland, Alabama, Pennsylvania, West  Indies</t>
+    <t>Approximately 37 998 Units Were Distributed</t>
+  </si>
+  <si>
+    <t>California Ohio Georgia New York Kentucky Florida Michigan Maine Maryland Alabama Pennsylvania West Indies</t>
   </si>
   <si>
     <t>d-101-5</t>
   </si>
   <si>
-    <t>Medadyne Liquid, In 0</t>
+    <t>Medadyne Liquid In 0</t>
   </si>
   <si>
     <t>Superpotenc</t>
   </si>
   <si>
-    <t>29,456 bottles were distributed</t>
+    <t>29 456 Bottles Were Distributed</t>
   </si>
   <si>
     <t>New York</t>
@@ -203,20 +196,19 @@
     <t>d-102/103-5</t>
   </si>
   <si>
-    <t>(a) Qualitest Brand Promethazine With Codeine Cough Syrup,  In 4 Fluid Ounce Bottles, Indicated For The Temporary  Relief Of Coughs And Upper Respiratory Symptoms Associated  With Allergy Or The Common Cold;  (b) Qualitest Brand Promethazine Vc With Codeine Cough  Syrup, In 4 Fluid Ounce Bottles, Indicated For The Temporary  Relief Of Coughs And Upper Respiratory Symptoms</t>
-  </si>
-  <si>
-    <t>Barre National, Inc</t>
-  </si>
-  <si>
-    <t>March 1, 1995</t>
-  </si>
-  <si>
-    <t>Label Does Not Bear Name And Address Of Manufacturer Or  Distributor</t>
-  </si>
-  <si>
-    <t>12,024 bottles of lot ra5051, and 2,340 bottles of lot
- ra5048</t>
+    <t>A Qualitest Brand Promethazine With Codeine Cough Syrup In 4 Fluid Ounce Bottles Indicated For The Temporary Relief Of Coughs And Upper Respiratory Symptoms Associated With Allergy Or The Common Cold B Qualitest Brand Promethazine Vc With Codeine Cough Syrup In 4 Fluid Ounce Bottles Indicated For The Temporary Relief Of Coughs And Upper Respiratory Symptoms</t>
+  </si>
+  <si>
+    <t>Barre National Inc</t>
+  </si>
+  <si>
+    <t>March 1 1995</t>
+  </si>
+  <si>
+    <t>Label Does Not Bear Name And Address Of Manufacturer Or Distributor</t>
+  </si>
+  <si>
+    <t>12 024 Bottles Of Lot Ra 5051 And 2 340 Bottles Of Lot Ra 5048</t>
   </si>
   <si>
     <t>Alabama</t>
@@ -225,19 +217,19 @@
     <t>d-104-5</t>
   </si>
   <si>
-    <t>Selenium Sulfide Lotion/shampoo, Usp 2</t>
-  </si>
-  <si>
-    <t>April 17, 1995</t>
+    <t>Selenium Sulfide Lotion Shampoo Usp 2</t>
+  </si>
+  <si>
+    <t>April 17 1995</t>
   </si>
   <si>
     <t>Use Of An Unapproved Raw Material Source</t>
   </si>
   <si>
-    <t>approximately 1,151 bottles were distributed</t>
-  </si>
-  <si>
-    <t>New York, Texas, Florida, Iowa, Ohio, Mississippi, Nebraska,  New Jersey, Tennessee, California</t>
+    <t>Approximately 1 151 Bottles Were Distributed</t>
+  </si>
+  <si>
+    <t>New York Texas Florida Iowa Ohio Mississippi Nebraska New Jersey Tennessee California</t>
   </si>
   <si>
     <t>Devices</t>
@@ -246,37 +238,37 @@
     <t>z-519-5</t>
   </si>
   <si>
-    <t>Lifestyles Assorted Color Condoms With Spermicidal  Lubricant</t>
-  </si>
-  <si>
-    <t>Ansell, Inc</t>
-  </si>
-  <si>
-    <t>December 2, 1994</t>
-  </si>
-  <si>
-    <t>The Subject Lots Had Been Recorded As Passing The  Accelerated Aging Tests For Tensile Strength, When, In Fact  They Had Failed This Testing</t>
-  </si>
-  <si>
-    <t>189,000 condoms were distributed</t>
+    <t>Lifestyles Assorted Color Condoms With Spermicidal Lubricant</t>
+  </si>
+  <si>
+    <t>Ansell Inc</t>
+  </si>
+  <si>
+    <t>December 2 1994</t>
+  </si>
+  <si>
+    <t>The Subject Lots Had Been Recorded As Passing The Accelerated Aging Tests For Tensile Strength When In Fact They Had Failed This Testing</t>
+  </si>
+  <si>
+    <t>189 000 Condoms Were Distributed</t>
   </si>
   <si>
     <t>z-553-5</t>
   </si>
   <si>
-    <t>Does Not Have The Shelf Life Which  Is Claimed On Its Labeling</t>
-  </si>
-  <si>
-    <t>Althin Medical, Inc</t>
-  </si>
-  <si>
-    <t>June 19, 1994</t>
-  </si>
-  <si>
-    <t>The Cpvc May Swell And Impede The Flow Of Liquid Through The  System</t>
-  </si>
-  <si>
-    <t>2,865 units are subject to field correction</t>
+    <t>Does Not Have The Shelf Life Which Is Claimed On Its Labeling</t>
+  </si>
+  <si>
+    <t>Althin Medical Inc</t>
+  </si>
+  <si>
+    <t>June 19 1994</t>
+  </si>
+  <si>
+    <t>The Cpvc May Swell And Impede The Flow Of Liquid Through The System</t>
+  </si>
+  <si>
+    <t>2 865 Units Are Subject To Field Correction</t>
   </si>
   <si>
     <t>Nationwide And International</t>
@@ -285,119 +277,139 @@
     <t>z-556-5</t>
   </si>
   <si>
-    <t>Drake Willock Systems 1000 Single Patient Delivery System  Fir Single Patient Hemodialysis</t>
-  </si>
-  <si>
-    <t>The Pump Head Is Cutting Or Abrading The Blood Tubing  Causing Blood Leaks</t>
-  </si>
-  <si>
-    <t>2,428 units are subject to field correction</t>
+    <t>Drake Willock Systems 1000 Single Patient Delivery System Fir Single Patient Hemodialysis</t>
+  </si>
+  <si>
+    <t>The Pump Head Is Cutting Or Abrading The Blood Tubing Causing Blood Leaks</t>
+  </si>
+  <si>
+    <t>2 428 Units Are Subject To Field Correction</t>
   </si>
   <si>
     <t>z-566/568-5</t>
   </si>
   <si>
-    <t>Laser Sensing Devices: (a) Autosense Vehicle Sensors;  (b) Miles Ats-101 Aerial Target System; (c) Ocean Wave Laser  System (owls)</t>
-  </si>
-  <si>
-    <t>Manufacturer.  Fda Approved The Firm's Corrective Action  Plan February 24</t>
-  </si>
-  <si>
-    <t>Schwartz Electro-optics, Inc</t>
-  </si>
-  <si>
-    <t>February 24, 1995</t>
+    <t>Laser Sensing Devices A Autosense Vehicle Sensors B Miles Ats 101 Aerial Target System C Ocean Wave Laser System Owls</t>
+  </si>
+  <si>
+    <t>Manufacturer Fda Approved The Firm's Corrective Action Plan February 24</t>
+  </si>
+  <si>
+    <t>Schwartz Electro Optics Inc</t>
+  </si>
+  <si>
+    <t>February 24 1995</t>
   </si>
   <si>
     <t>Units Exceeded The Class I Accessible Emission Limits</t>
   </si>
   <si>
-    <t>(a) 9 units; (b) 2 units; (c) 25 units</t>
+    <t>A 9 Units B 2 Units C 25 Units</t>
   </si>
   <si>
     <t>z-570/571-5</t>
   </si>
   <si>
-    <t>Storz +4</t>
-  </si>
-  <si>
-    <t>Storz Ophthalmics, Inc</t>
-  </si>
-  <si>
-    <t>January 3, 1995</t>
+    <t>Storz 4</t>
+  </si>
+  <si>
+    <t>Storz Ophthalmics Inc</t>
+  </si>
+  <si>
+    <t>January 3 1995</t>
   </si>
   <si>
     <t>Devices May Be Labeled With The Incorrect Diopter</t>
   </si>
   <si>
-    <t>47 lenses were distributed</t>
-  </si>
-  <si>
-    <t>Arizona, Florida, New York, Colorado, Wisconsin, Kansas,  Maryland, South Dakota, California, Texas, Ohio,  Pennsylvania, Missouri, Arizona, Massachusetts, Tennessee,  Iowa, Utah, Puerto Rico, Canada, Taiwan</t>
+    <t>47 Lenses Were Distributed</t>
+  </si>
+  <si>
+    <t>Arizona Florida New York Colorado Wisconsin Kansas Maryland South Dakota California Texas Ohio Pennsylvania Missouri Arizona Massachusetts Tennessee Iowa Utah Puerto Rico Canada Taiwan</t>
   </si>
   <si>
     <t>z-572-5</t>
   </si>
   <si>
-    <t>Oxford Medilog Sleep And Respiration Interface (sri) Which  Monitors Respiration</t>
+    <t>Oxford Medilog Sleep And Respiration Interface Sri Which Monitors Respiration</t>
   </si>
   <si>
     <t>Oxford Instruments Medical Systems</t>
   </si>
   <si>
-    <t>Oxford Medilog Systems, Abingdon, England</t>
-  </si>
-  <si>
-    <t>October 7, 1993</t>
-  </si>
-  <si>
-    <t>If The Electrodes Are Plugged Into The Sri Incorrectly,  Excessive Current May Be Transmitted To The Patient Causing  A Tingling Sensation</t>
-  </si>
-  <si>
-    <t>41 units were distributed</t>
-  </si>
-  <si>
-    <t>Florida, Alabama, Georgia, Utah, Missouri, Massachusetts,  Pennsylvania, Washington State, Louisiana, Virginia, Puerto  Rico, Canada, Mexico, Brazil</t>
+    <t>Oxford Medilog Systems Abingdon England</t>
+  </si>
+  <si>
+    <t>October 7 1993</t>
+  </si>
+  <si>
+    <t>If The Electrodes Are Plugged Into The Sri Incorrectly Excessive Current May Be Transmitted To The Patient Causing A Tingling Sensation</t>
+  </si>
+  <si>
+    <t>41 Units Were Distributed</t>
+  </si>
+  <si>
+    <t>Florida Alabama Georgia Utah Missouri Massachusetts Pennsylvania Washington State Louisiana Virginia Puerto Rico Canada Mexico Brazil</t>
   </si>
   <si>
     <t>z-573/591-5</t>
   </si>
   <si>
-    <t>1.  Intermate Sv 50 Ml/hr</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>December 6, 1994</t>
-  </si>
-  <si>
-    <t>The Adhesive Which Bonds The Flow Restricting Stainless  Steel Cannula To The Acrylic Stress Member Fails And Allows  Fluid To Bypass The Flow Restricting Cannula And Can Result  In Solution Infusion Rates Higher Than Intended</t>
-  </si>
-  <si>
-    <t>621,072 units were distributed; fda estimated that 150,000
- units remained on market at time of recall initiation</t>
+    <t>1 Intermate Sv 50 Ml Hr</t>
+  </si>
+  <si>
+    <t>I V Systems Division</t>
+  </si>
+  <si>
+    <t>December 6 1994</t>
+  </si>
+  <si>
+    <t>The Adhesive Which Bonds The Flow Restricting Stainless Steel Cannula To The Acrylic Stress Member Fails And Allows Fluid To Bypass The Flow Restricting Cannula And Can Result In Solution Infusion Rates Higher Than Intended</t>
+  </si>
+  <si>
+    <t>621 072 Units Were Distributed Fda Estimated That 150 000 Units Remained On Market At Time Of Recall Initiation</t>
   </si>
   <si>
     <t>z-593-5</t>
   </si>
   <si>
-    <t>Bear-1000 Ventilator, Catalog #50-0850-00, Indicated For The  Delivery Of Medical Gases To Pediatric And Adult Patients</t>
-  </si>
-  <si>
-    <t>Bear Medical Systems, Inc</t>
-  </si>
-  <si>
-    <t>November 4, 1994</t>
-  </si>
-  <si>
-    <t>The Ventilator Does Not Deliver The Lower Tidal Volumes In  Increments Of 1 Ml As Described In The Labeling Due To  Defective Software</t>
-  </si>
-  <si>
-    <t>115 units were distributed</t>
-  </si>
-  <si>
-    <t>California, Delaware, Florida, Kansas, Louisiana, Maine,  Michigan, North Carolina, New Jersey, New York,  Pennsylvania, South Dakota, Tennessee, Utah, Virginia, And  Internationally</t>
+    <t>Bear 1000 Ventilator Catalog 50 0850 00 Indicated For The Delivery Of Medical Gases To Pediatric And Adult Patients</t>
+  </si>
+  <si>
+    <t>Bear Medical Systems Inc</t>
+  </si>
+  <si>
+    <t>November 4 1994</t>
+  </si>
+  <si>
+    <t>The Ventilator Does Not Deliver The Lower Tidal Volumes In Increments Of 1 Ml As Described In The Labeling Due To Defective Software</t>
+  </si>
+  <si>
+    <t>115 Units Were Distributed</t>
+  </si>
+  <si>
+    <t>California Delaware Florida Kansas Louisiana Maine Michigan North Carolina New Jersey New York Pennsylvania South Dakota Tennessee Utah Virginia And Internationally</t>
+  </si>
+  <si>
+    <t>z-554-5</t>
+  </si>
+  <si>
+    <t>Drake Willock System 1000 Single Patient Delivery System A Single Patient Delivery Hemodialysis Delivery System</t>
+  </si>
+  <si>
+    <t>Althin Medical</t>
+  </si>
+  <si>
+    <t>Micropump Inc</t>
+  </si>
+  <si>
+    <t>August 29 1994</t>
+  </si>
+  <si>
+    <t>Mercury Was Found In The Pump Head Product Drake Willock System 1000 Single Patient Delivery For Single Patient Hemodialysis Recall Z 555 5 Code 1001 To 2870 Non Inclusive Manufacturer Althin Medical Inc Portland Oregon Recalled By Manufacturer By Telephone Starting In June 1994 To Arrange For Retrofitting Firm Initiated Field Correction Ongoing Distribution Nationwide And International Quantity 1 857 Units Are Subject To Field Correction Reason The Air Trap Float Which Controls The Incoming Water Supply Absorbs Water And Becomes Deformed Product Clinical Chemistry Analyzer Summit Series 7000 Recall Z 569 5 Code Serial Numbers 5306 8319 5315 Manufacturer Integrated Clinical Systems Inc Indianapolis Indiana Recalled By Manufacturer By Sending An Update Bulletin And Field Repair Kits On January 14 1994 And By Fax January 23 1995 Firm Initiated Field Correction Complete Distribution Tennessee France England Quantity 3 Units Were Distributed Reason If A Serum Tube Is Not Fully Seated In The Primary Tube Sampler An Optional Unit Designed To Alert The Instrument Operator When A Tube Does Not Contain Enough Blood Serum To Run All Of The Chemistry Test Specified It Can Interfere With The Drive Bar Stops Causing The Glass Tube To Break Which May Cause Injury Product Opus Myoglobin Test Modules An In Vitro Diagnostic Device Used With The Opus And Opus Plus Immunoassay System In The Quantitative Measurement Of Myoglobin In Serum As An Aid In The Diagnosis Of Acute Myocardial Infarction Recall Z 592 5 10 Code Catalog 700 50 Lot Myb 8 Exp 11 24 94 Manufacturer Behring Diagnostics Inc Westwood Massachusetts Recalled By Manufacturer By Telephone Between April 28 1994 And May 3 1994 And By Letter May 4 1994 Firm Initiated Field Correction Complete Distribution Nationwide Canada Quantity 209 Boxes Containing 50 Modules Each Were Distributed Firm Estimates None Remains On The Market Reason Defective Opus Myoglobin Test Modules May Cause An Inability By The User To Perform Or Correctly Read Test Results Update Beckman Synchron Cx 7 Clinical Analyzer Computer Enhanced Cx 4 Ce Cx 5 Ce Recall Z 520 5 Which Appeared In The March 22 1995 Enforcement Report Should Read Recalled By Beckman Instruments Inc Brea California By Letter Dated July 14 1994 Firm Initiated Field Correction Ongoing Reason Defective Software May Cause Patient Ammonia Test Results To Be Inaccurate 11 End Of Enforcement Report For April 5 1995 Blank Pages May Follow</t>
+  </si>
+  <si>
+    <t>127 Machines Were Subject To Field Correction</t>
   </si>
 </sst>
 </file>
@@ -774,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -867,16 +879,16 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -890,28 +902,28 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -925,31 +937,31 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
         <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>42</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -960,31 +972,31 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
         <v>46</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>47</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>48</v>
-      </c>
-      <c r="K6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -995,31 +1007,31 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
         <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
         <v>52</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>53</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>54</v>
-      </c>
-      <c r="K7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1030,31 +1042,31 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
         <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
       <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
         <v>58</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1065,31 +1077,31 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
         <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
         <v>63</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>64</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>65</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>66</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1100,31 +1112,31 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
         <v>68</v>
-      </c>
-      <c r="E10" t="s">
-        <v>69</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
         <v>70</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>71</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>72</v>
-      </c>
-      <c r="K10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1132,34 +1144,34 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
         <v>75</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s">
         <v>77</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>78</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>79</v>
       </c>
-      <c r="J11" t="s">
-        <v>80</v>
-      </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1167,34 +1179,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
         <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>82</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" t="s">
         <v>83</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>84</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>85</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>86</v>
-      </c>
-      <c r="K12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1202,34 +1214,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
         <v>88</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s">
         <v>83</v>
       </c>
-      <c r="H13" t="s">
-        <v>84</v>
-      </c>
       <c r="I13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" t="s">
         <v>90</v>
       </c>
-      <c r="J13" t="s">
-        <v>91</v>
-      </c>
       <c r="K13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1237,31 +1249,31 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
         <v>92</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>93</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>94</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>95</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>96</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>97</v>
-      </c>
-      <c r="J14" t="s">
-        <v>98</v>
       </c>
       <c r="K14" t="s">
         <v>21</v>
@@ -1272,34 +1284,34 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
         <v>99</v>
-      </c>
-      <c r="E15" t="s">
-        <v>100</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
         <v>101</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>102</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>103</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>104</v>
-      </c>
-      <c r="K15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1307,34 +1319,34 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
         <v>106</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>107</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>108</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>109</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>110</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>111</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>112</v>
-      </c>
-      <c r="K16" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1342,34 +1354,34 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
         <v>114</v>
-      </c>
-      <c r="E17" t="s">
-        <v>115</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" t="s">
         <v>116</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>117</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>118</v>
       </c>
-      <c r="J17" t="s">
-        <v>119</v>
-      </c>
       <c r="K17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1377,34 +1389,69 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" t="s">
         <v>120</v>
-      </c>
-      <c r="E18" t="s">
-        <v>121</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" t="s">
         <v>122</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>123</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>124</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>125</v>
       </c>
-      <c r="K18" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
         <v>126</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
